--- a/scLT/scLTdb summary.xlsx
+++ b/scLT/scLTdb summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="161">
   <si>
     <t>Study</t>
   </si>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">fate bias </t>
   </si>
   <si>
+    <t>RDS_link</t>
+  </si>
+  <si>
     <t>Biddy_2018_Nature</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>clone中下游细胞的count占比&gt;50%，deg只在others中做</t>
+  </si>
+  <si>
+    <t>https://drctdb.cowtransfer.com/s/29fec7cc0fc849</t>
   </si>
   <si>
     <t>Hurley_2020_CSC</t>
@@ -534,7 +540,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,13 +568,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1050,133 +1049,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,23 +1204,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1751,7 +1750,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K35"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1766,10 +1765,11 @@
     <col min="8" max="8" width="27.7272727272727" style="3" customWidth="1"/>
     <col min="9" max="10" width="8.72727272727273" style="3"/>
     <col min="11" max="11" width="55.6363636363636" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.72727272727273" style="3"/>
+    <col min="12" max="12" width="53.3636363636364" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.72727272727273" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1800,1153 +1800,1159 @@
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:11">
       <c r="A23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:11">
       <c r="A24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:11">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:11">
       <c r="A27" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:11">
       <c r="A30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2962,6 +2968,7 @@
     <hyperlink ref="F28" r:id="rId1" display="PMID32127417" tooltip="https://pubmed.ncbi.nlm.nih.gov/32127417"/>
     <hyperlink ref="G38" r:id="rId2" display="https://zenodo.org/record/7840235"/>
     <hyperlink ref="F38" r:id="rId3" display="https://doi.org/10.1101/2023.01.02.522501 "/>
+    <hyperlink ref="L2" r:id="rId4" display="https://drctdb.cowtransfer.com/s/29fec7cc0fc849"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/scLT/scLTdb summary.xlsx
+++ b/scLT/scLTdb summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB1407D-161F-46D1-98EA-2E99E2C08A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F1008-C8A7-4082-826A-905EDA1A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="33940" windowHeight="14710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="185">
   <si>
     <t>Study</t>
   </si>
@@ -539,6 +539,77 @@
   </si>
   <si>
     <t>4种命运的DEG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biddy_2018_Nature_deg</t>
+  </si>
+  <si>
+    <t>Hurley_2020_CSC_deg</t>
+  </si>
+  <si>
+    <t>Weinreb_2020_Science_deg</t>
+  </si>
+  <si>
+    <t>Pei_2020_CSC_deg</t>
+  </si>
+  <si>
+    <t>Alejo_2020_nature_deg</t>
+  </si>
+  <si>
+    <t>Dian_2022_cell_deg</t>
+  </si>
+  <si>
+    <t>Zhisong_2022_NatureMethod_Day15_deg</t>
+  </si>
+  <si>
+    <t>Zhisong_2022_NatureMethod_WholeOrgan_deg</t>
+  </si>
+  <si>
+    <t>Zhisong_2022_NatureMethod_visium_deg</t>
+  </si>
+  <si>
+    <t>Kamen_2021_CancerCell_Mouse1_deg</t>
+  </si>
+  <si>
+    <t>Kamen_2021_CancerCell_Mouse2_deg</t>
+  </si>
+  <si>
+    <t>DANIEL_2018_Science_deg</t>
+  </si>
+  <si>
+    <t>Sarah_2020_Cell_5FU_deg</t>
+  </si>
+  <si>
+    <t>Sarah_2020_Cell_EB_deg</t>
+  </si>
+  <si>
+    <t>Bastiaan_2018_NatureBiotech_deg</t>
+  </si>
+  <si>
+    <t>LiLi_2023_Cell_deg</t>
+  </si>
+  <si>
+    <t>Yaara_2021_Nature_deg</t>
+  </si>
+  <si>
+    <t>Quinn_2021_Science_5k_deg</t>
+  </si>
+  <si>
+    <t>Quinn_2021_Science_30k_deg</t>
+  </si>
+  <si>
+    <t>Dawson_2021_Nature_deg</t>
+  </si>
+  <si>
+    <t>Weber_2023_biorxiv_deg</t>
+  </si>
+  <si>
+    <t>deg file name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alejo_2020_nature_deg</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1283,12 @@
     <col min="8" max="8" width="27.7265625" style="3" customWidth="1"/>
     <col min="9" max="10" width="8.7265625" style="3"/>
     <col min="11" max="11" width="55.6328125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="3"/>
+    <col min="12" max="13" width="8.7265625" style="3"/>
+    <col min="14" max="14" width="37.7265625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1319,11 @@
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1281,8 +1357,11 @@
       <c r="M2" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1316,8 +1395,11 @@
       <c r="M3" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1351,8 +1433,11 @@
       <c r="M4" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1380,14 +1465,17 @@
       <c r="I5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>161</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1419,8 +1507,11 @@
       <c r="M6" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1453,8 +1544,11 @@
       <c r="M7" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1486,8 +1580,11 @@
       <c r="M8" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -1515,7 +1612,7 @@
       <c r="I9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L9" s="13" t="s">
@@ -1524,8 +1621,11 @@
       <c r="M9" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1553,15 +1653,18 @@
       <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="13" t="s">
         <v>159</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1589,15 +1692,18 @@
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="13" t="s">
         <v>159</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -1634,8 +1740,11 @@
       <c r="M12" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -1669,8 +1778,11 @@
       <c r="M13" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -1702,8 +1814,11 @@
       <c r="M14" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -1735,8 +1850,11 @@
       <c r="M15" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -1768,8 +1886,11 @@
       <c r="M16" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -1801,8 +1922,11 @@
         <v>69</v>
       </c>
       <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1832,8 +1956,11 @@
       </c>
       <c r="K18" s="17"/>
       <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -1867,8 +1994,11 @@
       <c r="M19" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -1900,8 +2030,11 @@
       <c r="M20" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -1935,8 +2068,11 @@
       <c r="M21" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>86</v>
       </c>
@@ -1973,8 +2109,11 @@
       <c r="M22" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -2011,8 +2150,11 @@
       <c r="M23" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>96</v>
       </c>
@@ -2049,8 +2191,11 @@
       <c r="M24" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>100</v>
       </c>
@@ -2087,8 +2232,11 @@
       <c r="M25" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -2125,8 +2273,11 @@
       <c r="M26" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>108</v>
       </c>
@@ -2163,8 +2314,11 @@
       <c r="M27" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>112</v>
       </c>
@@ -2198,8 +2352,11 @@
       <c r="M28" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
@@ -2233,8 +2390,11 @@
       <c r="M29" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>123</v>
       </c>
@@ -2268,8 +2428,11 @@
       <c r="M30" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>127</v>
       </c>
@@ -2303,8 +2466,11 @@
       <c r="M31" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>132</v>
       </c>
@@ -2338,8 +2504,11 @@
       <c r="M32" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
@@ -2371,8 +2540,11 @@
       <c r="M33" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>132</v>
       </c>
@@ -2404,8 +2576,11 @@
       <c r="M34" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
@@ -2437,8 +2612,11 @@
       <c r="M35" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>144</v>
       </c>
@@ -2470,8 +2648,11 @@
         <v>25</v>
       </c>
       <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>148</v>
       </c>
@@ -2505,8 +2686,11 @@
       <c r="M37" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2539,6 +2723,9 @@
       </c>
       <c r="M38" s="13" t="s">
         <v>157</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
